--- a/analysis.xlsx
+++ b/analysis.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="18">
   <si>
     <t>CourseName</t>
   </si>
@@ -53,6 +53,18 @@
   </si>
   <si>
     <t>noc17-cs33</t>
+  </si>
+  <si>
+    <t>noc17-ce26</t>
+  </si>
+  <si>
+    <t>noc17-cs26</t>
+  </si>
+  <si>
+    <t>noc17-hs19</t>
+  </si>
+  <si>
+    <t>noc17-cs29</t>
   </si>
 </sst>
 </file>
@@ -429,7 +441,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G14"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
@@ -574,6 +586,190 @@
         <v>9</v>
       </c>
     </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>

--- a/analysis.xlsx
+++ b/analysis.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="24">
   <si>
     <t>CourseName</t>
   </si>
@@ -34,37 +34,55 @@
     <t>Year</t>
   </si>
   <si>
-    <t>noc17-cs43</t>
+    <t>Introduction to Machine Learning</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>20du</t>
-  </si>
-  <si>
-    <t>noc17-hs30</t>
-  </si>
-  <si>
-    <t>noc17-cs28</t>
-  </si>
-  <si>
-    <t>noc17-cs40</t>
-  </si>
-  <si>
-    <t>noc17-cs33</t>
-  </si>
-  <si>
-    <t>noc17-ce26</t>
-  </si>
-  <si>
-    <t>noc17-cs26</t>
-  </si>
-  <si>
-    <t>noc17-hs19</t>
-  </si>
-  <si>
-    <t>noc17-cs29</t>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>Digital Image Processing of Remote Sensing Data</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Programming, data structures and algorithms using python</t>
+  </si>
+  <si>
+    <t>Introduction to Psychology</t>
+  </si>
+  <si>
+    <t>Marketing research and analysis</t>
+  </si>
+  <si>
+    <t>Introduction to Programming in C</t>
+  </si>
+  <si>
+    <t>Introduction to Modern Application Development</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>Technical english for engineers</t>
+  </si>
+  <si>
+    <t>Developing Soft Skills and Personality</t>
+  </si>
+  <si>
+    <t>Fundamentals of Database Systems</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Introduction to operating systems</t>
   </si>
 </sst>
 </file>
@@ -441,7 +459,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G18"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
@@ -479,295 +497,387 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E13" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="F13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
       </c>
       <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
         <v>8</v>
       </c>
-      <c r="D14" t="s">
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" t="s">
         <v>8</v>
       </c>
-      <c r="E14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" t="s">
-        <v>9</v>
+      <c r="F15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/analysis.xlsx
+++ b/analysis.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="24">
   <si>
     <t>CourseName</t>
   </si>
@@ -46,43 +46,43 @@
     <t>2017</t>
   </si>
   <si>
+    <t>Introduction to Programming in C</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Introduction to operating systems</t>
+  </si>
+  <si>
+    <t>Introduction to Modern Application Development</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>Technical english for engineers</t>
+  </si>
+  <si>
+    <t>Marketing research and analysis</t>
+  </si>
+  <si>
+    <t>Fundamentals of Database Systems</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Programming, data structures and algorithms using python</t>
+  </si>
+  <si>
     <t>Digital Image Processing of Remote Sensing Data</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>Programming, data structures and algorithms using python</t>
+    <t>Developing Soft Skills and Personality</t>
   </si>
   <si>
     <t>Introduction to Psychology</t>
-  </si>
-  <si>
-    <t>Marketing research and analysis</t>
-  </si>
-  <si>
-    <t>Introduction to Programming in C</t>
-  </si>
-  <si>
-    <t>Introduction to Modern Application Development</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>Technical english for engineers</t>
-  </si>
-  <si>
-    <t>Developing Soft Skills and Personality</t>
-  </si>
-  <si>
-    <t>Fundamentals of Database Systems</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>Introduction to operating systems</t>
   </si>
 </sst>
 </file>
@@ -459,7 +459,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G12"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
@@ -517,7 +517,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -540,7 +540,7 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -549,7 +549,7 @@
         <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
         <v>9</v>
@@ -563,10 +563,10 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
@@ -583,10 +583,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
@@ -606,10 +606,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
@@ -618,7 +618,7 @@
         <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F7" t="s">
         <v>9</v>
@@ -629,19 +629,19 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
         <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F8" t="s">
         <v>9</v>
@@ -652,10 +652,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
@@ -675,7 +675,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
@@ -698,7 +698,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
@@ -721,10 +721,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
@@ -733,150 +733,12 @@
         <v>9</v>
       </c>
       <c r="E12" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F12" t="s">
         <v>9</v>
       </c>
       <c r="G12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" t="s">
-        <v>9</v>
-      </c>
-      <c r="G14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" t="s">
-        <v>9</v>
-      </c>
-      <c r="G17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G18" t="s">
         <v>10</v>
       </c>
     </row>

--- a/analysis.xlsx
+++ b/analysis.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="31">
   <si>
     <t>CourseName</t>
   </si>
@@ -46,13 +46,37 @@
     <t>2017</t>
   </si>
   <si>
+    <t>Technical english for engineers</t>
+  </si>
+  <si>
+    <t>Fundamentals of Database Systems</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Introduction to operating systems</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Programming, data structures and algorithms using python</t>
+  </si>
+  <si>
     <t>Introduction to Programming in C</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>Introduction to operating systems</t>
+    <t>Introduction to Psychology</t>
+  </si>
+  <si>
+    <t>Digital Image Processing of Remote Sensing Data</t>
+  </si>
+  <si>
+    <t>Developing Soft Skills and Personality</t>
+  </si>
+  <si>
+    <t>Marketing research and analysis</t>
   </si>
   <si>
     <t>Introduction to Modern Application Development</t>
@@ -61,28 +85,25 @@
     <t>7</t>
   </si>
   <si>
-    <t>Technical english for engineers</t>
-  </si>
-  <si>
-    <t>Marketing research and analysis</t>
-  </si>
-  <si>
-    <t>Fundamentals of Database Systems</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>Programming, data structures and algorithms using python</t>
-  </si>
-  <si>
-    <t>Digital Image Processing of Remote Sensing Data</t>
-  </si>
-  <si>
-    <t>Developing Soft Skills and Personality</t>
-  </si>
-  <si>
-    <t>Introduction to Psychology</t>
+    <t>Introduction to Python 1</t>
+  </si>
+  <si>
+    <t>Digital Image Processing 1</t>
+  </si>
+  <si>
+    <t>Elite</t>
+  </si>
+  <si>
+    <t>Elite+gold</t>
+  </si>
+  <si>
+    <t>Digital Image Processing 20</t>
+  </si>
+  <si>
+    <t>Introduction to Python 21</t>
+  </si>
+  <si>
+    <t>Digital Image Processing 21</t>
   </si>
 </sst>
 </file>
@@ -459,7 +480,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G19"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
@@ -526,7 +547,7 @@
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
@@ -537,19 +558,19 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
         <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
       </c>
       <c r="F4" t="s">
         <v>9</v>
@@ -563,16 +584,16 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
         <v>9</v>
@@ -586,7 +607,7 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
@@ -609,7 +630,7 @@
         <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
@@ -618,7 +639,7 @@
         <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F7" t="s">
         <v>9</v>
@@ -641,7 +662,7 @@
         <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F8" t="s">
         <v>9</v>
@@ -652,10 +673,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
@@ -664,7 +685,7 @@
         <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
@@ -675,19 +696,19 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F10" t="s">
         <v>9</v>
@@ -698,19 +719,19 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
         <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F11" t="s">
         <v>9</v>
@@ -721,24 +742,185 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s">
-        <v>9</v>
-      </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D12" t="s">
         <v>9</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F12" t="s">
         <v>9</v>
       </c>
       <c r="G12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" t="s">
         <v>10</v>
       </c>
     </row>
